--- a/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
+++ b/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D914DBE-78D0-4B31-B16A-3FBC29A68443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="409">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1258,12 +1257,15 @@
   </si>
   <si>
     <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 3/23/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1648,6 +1650,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1680,15 +1691,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1967,25 +1969,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2292,94 +2294,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="3615" topLeftCell="A538" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E546" sqref="E546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2387,7 +2389,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2400,24 +2402,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2461,7 +2463,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>130.84000000000003</v>
+        <v>132.09000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2471,16 +2473,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.79200000000003</v>
+        <v>234.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="13">
         <v>23</v>
       </c>
@@ -2496,8 +2498,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="20"/>
@@ -2520,8 +2522,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>79</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2544,8 +2546,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -2568,8 +2570,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>81</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -2592,8 +2594,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -2616,8 +2618,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -2640,8 +2642,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="20"/>
@@ -2660,8 +2662,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>86</v>
       </c>
       <c r="B18" s="20"/>
@@ -2682,8 +2684,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="20"/>
@@ -2704,7 +2706,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>89</v>
       </c>
@@ -2722,7 +2724,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>34700</v>
       </c>
@@ -2742,7 +2744,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34731</v>
       </c>
@@ -2762,7 +2764,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>34759</v>
       </c>
@@ -2782,7 +2784,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>34790</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>34820</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34851</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -2876,7 +2878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34881</v>
       </c>
@@ -2896,7 +2898,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34912</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34943</v>
       </c>
@@ -2942,7 +2944,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34973</v>
       </c>
@@ -2968,7 +2970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35004</v>
       </c>
@@ -2988,7 +2990,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35034</v>
       </c>
@@ -3008,7 +3010,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>90</v>
       </c>
@@ -3030,7 +3032,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>35065</v>
       </c>
@@ -3050,7 +3052,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35096</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35125</v>
       </c>
@@ -3090,7 +3092,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>35156</v>
       </c>
@@ -3110,7 +3112,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>35186</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>35217</v>
       </c>
@@ -3156,7 +3158,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>35247</v>
       </c>
@@ -3176,7 +3178,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>35278</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>35309</v>
       </c>
@@ -3216,7 +3218,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>35339</v>
       </c>
@@ -3236,7 +3238,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>35370</v>
       </c>
@@ -3256,7 +3258,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>35400</v>
       </c>
@@ -3280,7 +3282,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>91</v>
       </c>
@@ -3302,7 +3304,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>35431</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>35462</v>
       </c>
@@ -3348,7 +3350,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>35490</v>
       </c>
@@ -3368,7 +3370,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>35521</v>
       </c>
@@ -3388,7 +3390,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>35551</v>
       </c>
@@ -3408,7 +3410,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>35582</v>
       </c>
@@ -3428,7 +3430,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>35612</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35643</v>
       </c>
@@ -3474,7 +3476,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>35674</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>35704</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>35735</v>
       </c>
@@ -3550,7 +3552,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35765</v>
       </c>
@@ -3570,7 +3572,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>92</v>
       </c>
@@ -3592,7 +3594,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>35796</v>
       </c>
@@ -3612,7 +3614,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>35827</v>
       </c>
@@ -3632,7 +3634,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>35855</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>35886</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>35916</v>
       </c>
@@ -3708,7 +3710,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35947</v>
       </c>
@@ -3732,7 +3734,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35977</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>113</v>
@@ -3778,7 +3780,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36008</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>114</v>
@@ -3824,7 +3826,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>36039</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>45</v>
@@ -3872,7 +3874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>115</v>
@@ -3892,7 +3894,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>36069</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>116</v>
@@ -3940,7 +3942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>117</v>
@@ -3960,7 +3962,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36100</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>119</v>
@@ -4006,7 +4008,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>36130</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -4054,7 +4056,7 @@
         <v>36050</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>118</v>
@@ -4076,7 +4078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -4096,7 +4098,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>105</v>
       </c>
@@ -4118,7 +4120,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>36161</v>
       </c>
@@ -4144,7 +4146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>130</v>
@@ -4164,7 +4166,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>36192</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>101</v>
@@ -4212,7 +4214,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>132</v>
@@ -4232,7 +4234,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>36220</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4280,7 +4282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>133</v>
@@ -4302,7 +4304,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36251</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4350,7 +4352,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>134</v>
@@ -4370,7 +4372,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>36281</v>
       </c>
@@ -4396,7 +4398,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4418,7 +4420,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>135</v>
@@ -4440,7 +4442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36312</v>
       </c>
@@ -4466,7 +4468,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4488,7 +4490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>45</v>
@@ -4510,7 +4512,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -4532,7 +4534,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>136</v>
@@ -4552,7 +4554,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>36342</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4600,7 +4602,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>148</v>
@@ -4620,7 +4622,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>36373</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4668,7 +4670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>36404</v>
       </c>
@@ -4694,7 +4696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>108</v>
@@ -4716,7 +4718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4738,7 +4740,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>152</v>
@@ -4758,7 +4760,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>36434</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>45</v>
@@ -4806,7 +4808,7 @@
         <v>36321</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>45</v>
@@ -4828,7 +4830,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>36465</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>149</v>
@@ -4874,7 +4876,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>36495</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>93</v>
@@ -4922,7 +4924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>45</v>
@@ -4944,7 +4946,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>150</v>
@@ -4964,7 +4966,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -4984,7 +4986,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>106</v>
       </c>
@@ -5006,7 +5008,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>36526</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>164</v>
@@ -5052,7 +5054,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>36557</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>165</v>
@@ -5100,7 +5102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>36586</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>166</v>
@@ -5146,7 +5148,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36617</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>167</v>
@@ -5192,7 +5194,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36647</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>93</v>
@@ -5240,7 +5242,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>168</v>
@@ -5260,7 +5262,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>36678</v>
       </c>
@@ -5284,7 +5286,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>36708</v>
       </c>
@@ -5308,7 +5310,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>36739</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>36715</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>45</v>
@@ -5356,7 +5358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>170</v>
@@ -5376,7 +5378,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>36770</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>36655</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5424,7 +5426,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>185</v>
@@ -5444,7 +5446,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>36800</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>45</v>
@@ -5492,7 +5494,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>186</v>
@@ -5512,7 +5514,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>36831</v>
       </c>
@@ -5538,7 +5540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>93</v>
@@ -5560,7 +5562,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>187</v>
@@ -5580,7 +5582,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>36861</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>36750</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>71</v>
@@ -5626,7 +5628,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>188</v>
@@ -5648,7 +5650,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>107</v>
       </c>
@@ -5670,7 +5672,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>36892</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>193</v>
@@ -5716,7 +5718,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>36923</v>
       </c>
@@ -5742,7 +5744,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>36951</v>
       </c>
@@ -5768,7 +5770,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5790,7 +5792,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>36982</v>
       </c>
@@ -5816,7 +5818,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>37012</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5860,7 +5862,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>37043</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -5908,7 +5910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -5930,7 +5932,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>37073</v>
       </c>
@@ -5956,7 +5958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>37104</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>45</v>
@@ -6004,7 +6006,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>37135</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37165</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -6078,7 +6080,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>101</v>
@@ -6100,7 +6102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>101</v>
@@ -6122,7 +6124,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>37196</v>
       </c>
@@ -6142,7 +6144,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>37226</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>180</v>
       </c>
@@ -6192,7 +6194,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>37257</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6236,7 +6238,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>37288</v>
       </c>
@@ -6256,7 +6258,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>37316</v>
       </c>
@@ -6276,7 +6278,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>37347</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>37377</v>
       </c>
@@ -6328,7 +6330,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>101</v>
@@ -6350,7 +6352,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6368,7 +6370,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>37408</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>37438</v>
       </c>
@@ -6414,7 +6416,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>37469</v>
       </c>
@@ -6440,7 +6442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>37500</v>
       </c>
@@ -6466,7 +6468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>37530</v>
       </c>
@@ -6486,7 +6488,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>37561</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>219</v>
@@ -6536,7 +6538,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>37591</v>
       </c>
@@ -6560,7 +6562,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="48" t="s">
         <v>181</v>
       </c>
@@ -6582,7 +6584,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>37622</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>223</v>
@@ -6628,7 +6630,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>37653</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6672,7 +6674,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>37681</v>
       </c>
@@ -6696,7 +6698,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>37712</v>
       </c>
@@ -6722,7 +6724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6740,7 +6742,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>37742</v>
       </c>
@@ -6766,7 +6768,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>37773</v>
       </c>
@@ -6792,7 +6794,7 @@
         <v>37686</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>101</v>
@@ -6814,7 +6816,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>93</v>
@@ -6836,7 +6838,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>45</v>
@@ -6858,7 +6860,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>37803</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -6906,7 +6908,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>234</v>
@@ -6926,7 +6928,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>37834</v>
       </c>
@@ -6952,7 +6954,7 @@
         <v>37810</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>37865</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -7000,7 +7002,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>235</v>
@@ -7020,7 +7022,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>37895</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>108</v>
@@ -7068,7 +7070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>236</v>
@@ -7090,7 +7092,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>37926</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>37813</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>118</v>
@@ -7138,7 +7140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>237</v>
@@ -7158,7 +7160,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>37956</v>
       </c>
@@ -7184,7 +7186,7 @@
         <v>37845</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>238</v>
@@ -7204,7 +7206,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>151</v>
@@ -7224,7 +7226,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>182</v>
       </c>
@@ -7242,7 +7244,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>37987</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>246</v>
@@ -7288,7 +7290,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38018</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>38047</v>
       </c>
@@ -7338,7 +7340,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>38078</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -7386,7 +7388,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>249</v>
@@ -7406,7 +7408,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>38108</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>38139</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>38169</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>252</v>
@@ -7508,7 +7510,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>38200</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>38329</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>253</v>
@@ -7556,7 +7558,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>38231</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -7604,7 +7606,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7624,7 +7626,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>38261</v>
       </c>
@@ -7650,7 +7652,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>38292</v>
       </c>
@@ -7676,7 +7678,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>38322</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>263</v>
@@ -7722,7 +7724,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7744,7 +7746,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
         <v>183</v>
       </c>
@@ -7766,7 +7768,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>38353</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7814,7 +7816,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>101</v>
@@ -7836,7 +7838,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>108</v>
@@ -7858,7 +7860,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>265</v>
@@ -7878,7 +7880,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>38384</v>
       </c>
@@ -7904,7 +7906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>45</v>
@@ -7926,7 +7928,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>266</v>
@@ -7948,7 +7950,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>38412</v>
       </c>
@@ -7974,7 +7976,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>38443</v>
       </c>
@@ -8000,7 +8002,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>45</v>
@@ -8022,7 +8024,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>268</v>
@@ -8042,7 +8044,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>38473</v>
       </c>
@@ -8068,7 +8070,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8088,7 +8090,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -8108,7 +8110,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>269</v>
@@ -8128,7 +8130,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>38504</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>270</v>
@@ -8174,7 +8176,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>38534</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>38571</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>282</v>
@@ -8220,7 +8222,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>38565</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>283</v>
@@ -8268,7 +8270,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>46</v>
@@ -8290,7 +8292,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>284</v>
@@ -8310,7 +8312,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>38596</v>
       </c>
@@ -8336,7 +8338,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>101</v>
@@ -8358,7 +8360,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>285</v>
@@ -8378,7 +8380,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>38626</v>
       </c>
@@ -8402,7 +8404,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>38657</v>
       </c>
@@ -8428,7 +8430,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>101</v>
@@ -8450,7 +8452,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>287</v>
@@ -8470,7 +8472,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>38687</v>
       </c>
@@ -8496,7 +8498,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>288</v>
@@ -8516,7 +8518,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
         <v>184</v>
       </c>
@@ -8538,7 +8540,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>38718</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>101</v>
@@ -8586,7 +8588,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>294</v>
@@ -8606,7 +8608,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>38749</v>
       </c>
@@ -8630,7 +8632,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>38777</v>
       </c>
@@ -8656,7 +8658,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -8676,7 +8678,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>101</v>
@@ -8698,7 +8700,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>101</v>
@@ -8720,7 +8722,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>298</v>
@@ -8742,7 +8744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8766,7 +8768,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>299</v>
@@ -8786,7 +8788,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>38838</v>
       </c>
@@ -8810,7 +8812,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>38869</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>301</v>
@@ -8856,7 +8858,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>38899</v>
       </c>
@@ -8882,7 +8884,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>302</v>
@@ -8902,7 +8904,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>38930</v>
       </c>
@@ -8928,7 +8930,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>101</v>
@@ -8950,7 +8952,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>303</v>
@@ -8970,7 +8972,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>38961</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -9018,7 +9020,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>305</v>
@@ -9038,7 +9040,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>38991</v>
       </c>
@@ -9064,7 +9066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>101</v>
@@ -9086,7 +9088,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>318</v>
@@ -9106,7 +9108,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>39022</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>319</v>
@@ -9154,7 +9156,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>39052</v>
       </c>
@@ -9178,7 +9180,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>320</v>
@@ -9198,7 +9200,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -9218,7 +9220,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>304</v>
       </c>
@@ -9240,7 +9242,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>39083</v>
       </c>
@@ -9260,7 +9262,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>39114</v>
       </c>
@@ -9280,7 +9282,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>39142</v>
       </c>
@@ -9300,7 +9302,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>39173</v>
       </c>
@@ -9320,7 +9322,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>39203</v>
       </c>
@@ -9340,7 +9342,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>39234</v>
       </c>
@@ -9360,7 +9362,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>39264</v>
       </c>
@@ -9386,7 +9388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>39295</v>
       </c>
@@ -9406,7 +9408,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39326</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>39356</v>
       </c>
@@ -9452,7 +9454,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>39387</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>39417</v>
       </c>
@@ -9496,7 +9498,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>325</v>
       </c>
@@ -9518,7 +9520,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>39448</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>39479</v>
       </c>
@@ -9564,7 +9566,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>39508</v>
       </c>
@@ -9584,7 +9586,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>39539</v>
       </c>
@@ -9604,7 +9606,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>39569</v>
       </c>
@@ -9628,7 +9630,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>39600</v>
       </c>
@@ -9648,7 +9650,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>39630</v>
       </c>
@@ -9668,7 +9670,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>39661</v>
       </c>
@@ -9688,7 +9690,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>39692</v>
       </c>
@@ -9708,7 +9710,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>39722</v>
       </c>
@@ -9732,7 +9734,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>39753</v>
       </c>
@@ -9752,7 +9754,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>39783</v>
       </c>
@@ -9776,7 +9778,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>324</v>
       </c>
@@ -9798,7 +9800,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>39814</v>
       </c>
@@ -9818,7 +9820,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>39845</v>
       </c>
@@ -9838,7 +9840,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>39873</v>
       </c>
@@ -9858,7 +9860,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>39904</v>
       </c>
@@ -9878,7 +9880,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>39934</v>
       </c>
@@ -9898,7 +9900,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>39965</v>
       </c>
@@ -9918,7 +9920,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>39995</v>
       </c>
@@ -9938,7 +9940,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40026</v>
       </c>
@@ -9958,7 +9960,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>40057</v>
       </c>
@@ -9978,7 +9980,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40087</v>
       </c>
@@ -9998,7 +10000,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40118</v>
       </c>
@@ -10018,7 +10020,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>40148</v>
       </c>
@@ -10042,7 +10044,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>323</v>
       </c>
@@ -10064,7 +10066,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>40179</v>
       </c>
@@ -10084,7 +10086,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40210</v>
       </c>
@@ -10104,7 +10106,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40238</v>
       </c>
@@ -10124,7 +10126,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40269</v>
       </c>
@@ -10144,7 +10146,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40299</v>
       </c>
@@ -10164,7 +10166,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>40330</v>
       </c>
@@ -10184,7 +10186,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40360</v>
       </c>
@@ -10204,7 +10206,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40391</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>40422</v>
       </c>
@@ -10250,7 +10252,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40452</v>
       </c>
@@ -10270,7 +10272,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40483</v>
       </c>
@@ -10290,7 +10292,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>40513</v>
       </c>
@@ -10314,7 +10316,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="48" t="s">
         <v>332</v>
       </c>
@@ -10336,7 +10338,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>40544</v>
       </c>
@@ -10360,7 +10362,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40575</v>
       </c>
@@ -10380,7 +10382,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>40603</v>
       </c>
@@ -10404,7 +10406,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>336</v>
@@ -10424,7 +10426,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>40634</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>40664</v>
       </c>
@@ -10464,7 +10466,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>40695</v>
       </c>
@@ -10484,7 +10486,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>40725</v>
       </c>
@@ -10504,7 +10506,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>40756</v>
       </c>
@@ -10524,7 +10526,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>40787</v>
       </c>
@@ -10544,7 +10546,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>40817</v>
       </c>
@@ -10564,7 +10566,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>40848</v>
       </c>
@@ -10584,7 +10586,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>40878</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>59</v>
@@ -10628,7 +10630,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>337</v>
@@ -10646,7 +10648,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>333</v>
       </c>
@@ -10668,7 +10670,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>40909</v>
       </c>
@@ -10692,7 +10694,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>40940</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>57</v>
@@ -10738,7 +10740,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>344</v>
@@ -10758,7 +10760,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>40969</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41000</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -10830,7 +10832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>346</v>
@@ -10852,7 +10854,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>41030</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>347</v>
@@ -10904,7 +10906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>41061</v>
       </c>
@@ -10928,7 +10930,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>348</v>
@@ -10952,7 +10954,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41091</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>350</v>
@@ -11004,7 +11006,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41122</v>
       </c>
@@ -11026,7 +11028,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>349</v>
@@ -11048,7 +11050,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>41153</v>
       </c>
@@ -11072,7 +11074,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>108</v>
@@ -11096,7 +11098,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>351</v>
@@ -11116,7 +11118,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>41183</v>
       </c>
@@ -11142,7 +11144,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>352</v>
@@ -11164,7 +11166,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>41214</v>
       </c>
@@ -11188,7 +11190,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>353</v>
@@ -11208,7 +11210,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>41244</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>71</v>
@@ -11256,7 +11258,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>354</v>
@@ -11278,7 +11280,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>46</v>
@@ -11298,7 +11300,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>334</v>
       </c>
@@ -11320,7 +11322,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>41275</v>
       </c>
@@ -11340,7 +11342,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>41306</v>
       </c>
@@ -11362,7 +11364,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>41334</v>
       </c>
@@ -11386,7 +11388,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>41365</v>
       </c>
@@ -11406,7 +11408,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>41395</v>
       </c>
@@ -11426,7 +11428,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>41426</v>
       </c>
@@ -11450,7 +11452,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>41456</v>
       </c>
@@ -11470,7 +11472,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>41487</v>
       </c>
@@ -11490,7 +11492,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>41518</v>
       </c>
@@ -11510,7 +11512,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>41548</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>41579</v>
       </c>
@@ -11562,7 +11564,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>73</v>
@@ -11584,7 +11586,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>41609</v>
       </c>
@@ -11610,7 +11612,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
         <v>335</v>
       </c>
@@ -11632,7 +11634,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>41640</v>
       </c>
@@ -11652,7 +11654,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>41671</v>
       </c>
@@ -11672,7 +11674,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>41699</v>
       </c>
@@ -11696,7 +11698,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>41730</v>
       </c>
@@ -11722,7 +11724,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>41760</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>41791</v>
       </c>
@@ -11774,7 +11776,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>41821</v>
       </c>
@@ -11794,7 +11796,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>41852</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -11840,7 +11842,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>41883</v>
       </c>
@@ -11866,7 +11868,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>41913</v>
       </c>
@@ -11886,7 +11888,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>41944</v>
       </c>
@@ -11906,7 +11908,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>41974</v>
       </c>
@@ -11930,7 +11932,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="48" t="s">
         <v>375</v>
       </c>
@@ -11952,7 +11954,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>42005</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>42036</v>
       </c>
@@ -11998,7 +12000,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42064</v>
       </c>
@@ -12022,7 +12024,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>42095</v>
       </c>
@@ -12042,7 +12044,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>42125</v>
       </c>
@@ -12062,7 +12064,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>42156</v>
       </c>
@@ -12082,7 +12084,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>42186</v>
       </c>
@@ -12102,7 +12104,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>42217</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>386</v>
@@ -12150,7 +12152,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>42248</v>
       </c>
@@ -12170,7 +12172,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>42278</v>
       </c>
@@ -12190,7 +12192,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <v>42309</v>
       </c>
@@ -12210,7 +12212,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>42339</v>
       </c>
@@ -12234,7 +12236,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
         <v>377</v>
       </c>
@@ -12256,7 +12258,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>42370</v>
       </c>
@@ -12276,7 +12278,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>42401</v>
       </c>
@@ -12296,7 +12298,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <v>42430</v>
       </c>
@@ -12320,7 +12322,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <v>42461</v>
       </c>
@@ -12344,7 +12346,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>42491</v>
       </c>
@@ -12368,7 +12370,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>42522</v>
       </c>
@@ -12392,7 +12394,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>42552</v>
       </c>
@@ -12416,7 +12418,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <v>42583</v>
       </c>
@@ -12442,7 +12444,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>395</v>
@@ -12464,7 +12466,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>42614</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>108</v>
@@ -12512,7 +12514,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>42644</v>
       </c>
@@ -12538,7 +12540,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>397</v>
@@ -12558,7 +12560,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>42675</v>
       </c>
@@ -12582,7 +12584,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>42705</v>
       </c>
@@ -12606,7 +12608,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
         <v>376</v>
       </c>
@@ -12628,7 +12630,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <v>42736</v>
       </c>
@@ -12648,7 +12650,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <v>42767</v>
       </c>
@@ -12668,7 +12670,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>42795</v>
       </c>
@@ -12688,7 +12690,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>42826</v>
       </c>
@@ -12714,7 +12716,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>42856</v>
       </c>
@@ -12734,7 +12736,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>42887</v>
       </c>
@@ -12754,7 +12756,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>42917</v>
       </c>
@@ -12774,7 +12776,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>42948</v>
       </c>
@@ -12794,7 +12796,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>42979</v>
       </c>
@@ -12814,7 +12816,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>43009</v>
       </c>
@@ -12834,7 +12836,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <v>43040</v>
       </c>
@@ -12854,7 +12856,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>43070</v>
       </c>
@@ -12878,7 +12880,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
         <v>44</v>
       </c>
@@ -12900,7 +12902,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43101</v>
       </c>
@@ -12920,7 +12922,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43132</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43160</v>
       </c>
@@ -12966,7 +12968,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43191</v>
       </c>
@@ -12986,7 +12988,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43221</v>
       </c>
@@ -13006,7 +13008,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43252</v>
       </c>
@@ -13026,7 +13028,7 @@
       <c r="J479" s="12"/>
       <c r="K479" s="15"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43282</v>
       </c>
@@ -13052,7 +13054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -13072,7 +13074,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43344</v>
       </c>
@@ -13092,7 +13094,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43374</v>
       </c>
@@ -13112,7 +13114,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43405</v>
       </c>
@@ -13132,7 +13134,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43435</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
         <v>50</v>
       </c>
@@ -13176,7 +13178,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -13196,7 +13198,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -13216,7 +13218,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -13262,7 +13264,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -13282,7 +13284,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43617</v>
       </c>
@@ -13302,7 +13304,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43647</v>
       </c>
@@ -13322,7 +13324,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43678</v>
       </c>
@@ -13342,7 +13344,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43709</v>
       </c>
@@ -13362,7 +13364,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43739</v>
       </c>
@@ -13382,7 +13384,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43770</v>
       </c>
@@ -13408,7 +13410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43800</v>
       </c>
@@ -13428,7 +13430,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
         <v>54</v>
       </c>
@@ -13446,7 +13448,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43831</v>
       </c>
@@ -13470,7 +13472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>56</v>
@@ -13487,7 +13489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43862</v>
       </c>
@@ -13507,7 +13509,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13531,7 +13533,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>58</v>
@@ -13550,7 +13552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43922</v>
       </c>
@@ -13570,7 +13572,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43952</v>
       </c>
@@ -13590,7 +13592,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43983</v>
       </c>
@@ -13610,7 +13612,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13630,7 +13632,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13650,7 +13652,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13670,7 +13672,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13690,7 +13692,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13710,7 +13712,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13734,7 +13736,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>63</v>
       </c>
@@ -13752,7 +13754,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13772,7 +13774,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44228</v>
       </c>
@@ -13792,7 +13794,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44256</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44287</v>
       </c>
@@ -13846,7 +13848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13866,7 +13868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44317</v>
       </c>
@@ -13890,7 +13892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44348</v>
       </c>
@@ -13910,7 +13912,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44378</v>
       </c>
@@ -13930,7 +13932,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44409</v>
       </c>
@@ -13950,7 +13952,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44440</v>
       </c>
@@ -13970,7 +13972,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44470</v>
       </c>
@@ -13990,7 +13992,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44501</v>
       </c>
@@ -14010,7 +14012,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44531</v>
       </c>
@@ -14036,7 +14038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="48" t="s">
         <v>70</v>
       </c>
@@ -14054,7 +14056,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44562</v>
       </c>
@@ -14074,7 +14076,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44593</v>
       </c>
@@ -14094,7 +14096,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44621</v>
       </c>
@@ -14114,7 +14116,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44652</v>
       </c>
@@ -14134,7 +14136,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44682</v>
       </c>
@@ -14154,7 +14156,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44713</v>
       </c>
@@ -14174,7 +14176,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44743</v>
       </c>
@@ -14194,7 +14196,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44774</v>
       </c>
@@ -14214,7 +14216,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44805</v>
       </c>
@@ -14234,7 +14236,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44835</v>
       </c>
@@ -14258,7 +14260,7 @@
         <v>44840</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>57</v>
@@ -14278,7 +14280,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44866</v>
       </c>
@@ -14304,7 +14306,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>57</v>
@@ -14324,7 +14326,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44896</v>
       </c>
@@ -14350,7 +14352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="48" t="s">
         <v>75</v>
       </c>
@@ -14368,7 +14370,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44927</v>
       </c>
@@ -14388,7 +14390,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44958</v>
       </c>
@@ -14412,25 +14414,31 @@
         <v>77</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44986</v>
       </c>
-      <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="B546" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
-    </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K546" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45017</v>
       </c>
@@ -14448,7 +14456,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45047</v>
       </c>
@@ -14466,7 +14474,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45078</v>
       </c>
@@ -14484,7 +14492,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45108</v>
       </c>
@@ -14502,7 +14510,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45139</v>
       </c>
@@ -14520,7 +14528,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45170</v>
       </c>
@@ -14538,7 +14546,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45200</v>
       </c>
@@ -14556,7 +14564,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45231</v>
       </c>
@@ -14574,7 +14582,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45261</v>
       </c>
@@ -14592,7 +14600,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45292</v>
       </c>
@@ -14610,7 +14618,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45323</v>
       </c>
@@ -14628,7 +14636,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45352</v>
       </c>
@@ -14646,7 +14654,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45383</v>
       </c>
@@ -14664,7 +14672,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45413</v>
       </c>
@@ -14682,7 +14690,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45444</v>
       </c>
@@ -14700,7 +14708,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45474</v>
       </c>
@@ -14718,7 +14726,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45505</v>
       </c>
@@ -14736,7 +14744,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45536</v>
       </c>
@@ -14754,7 +14762,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45566</v>
       </c>
@@ -14772,7 +14780,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45597</v>
       </c>
@@ -14790,7 +14798,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45627</v>
       </c>
@@ -14808,7 +14816,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45658</v>
       </c>
@@ -14826,7 +14834,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45689</v>
       </c>
@@ -14844,7 +14852,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45717</v>
       </c>
@@ -14862,7 +14870,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45748</v>
       </c>
@@ -14880,7 +14888,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45778</v>
       </c>
@@ -14898,7 +14906,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45809</v>
       </c>
@@ -14916,7 +14924,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45839</v>
       </c>
@@ -14934,7 +14942,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45870</v>
       </c>
@@ -14952,7 +14960,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45901</v>
       </c>
@@ -14970,7 +14978,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45931</v>
       </c>
@@ -14988,7 +14996,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45962</v>
       </c>
@@ -15006,7 +15014,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45992</v>
       </c>
@@ -15024,7 +15032,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>46023</v>
       </c>
@@ -15042,7 +15050,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>46054</v>
       </c>
@@ -15060,7 +15068,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>46082</v>
       </c>
@@ -15078,7 +15086,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>46113</v>
       </c>
@@ -15096,7 +15104,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>46143</v>
       </c>
@@ -15114,7 +15122,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>46174</v>
       </c>
@@ -15132,7 +15140,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46204</v>
       </c>
@@ -15150,7 +15158,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46235</v>
       </c>
@@ -15168,7 +15176,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46266</v>
       </c>
@@ -15186,7 +15194,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>46296</v>
       </c>
@@ -15204,7 +15212,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>46327</v>
       </c>
@@ -15222,7 +15230,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>46357</v>
       </c>
@@ -15240,7 +15248,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15256,7 +15264,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15272,7 +15280,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15288,7 +15296,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15304,7 +15312,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15320,7 +15328,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41"/>
       <c r="B597" s="15"/>
       <c r="C597" s="42"/>
@@ -15351,10 +15359,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15377,41 +15385,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15440,7 +15448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>81.95</v>
       </c>
@@ -15470,17 +15478,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15494,14 +15502,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15528,7 +15536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15554,7 +15562,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15580,7 +15588,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15606,7 +15614,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15632,7 +15640,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15658,7 +15666,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15684,7 +15692,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15710,7 +15718,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15730,7 +15738,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15750,7 +15758,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15770,7 +15778,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15791,7 +15799,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15812,7 +15820,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15833,7 +15841,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15854,7 +15862,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15875,7 +15883,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15896,7 +15904,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15917,7 +15925,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15938,7 +15946,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15959,7 +15967,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15980,7 +15988,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16001,7 +16009,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16022,7 +16030,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16043,7 +16051,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16064,7 +16072,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16085,7 +16093,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16106,7 +16114,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16127,7 +16135,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16148,7 +16156,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16169,7 +16177,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16190,7 +16198,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16199,7 +16207,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16208,7 +16216,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16217,7 +16225,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16226,7 +16234,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16235,7 +16243,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16244,7 +16252,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16253,7 +16261,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16262,7 +16270,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16271,7 +16279,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16280,7 +16288,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16289,7 +16297,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16298,7 +16306,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16307,7 +16315,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16316,7 +16324,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16325,7 +16333,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16334,7 +16342,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16343,7 +16351,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16352,7 +16360,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16361,7 +16369,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16370,7 +16378,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16379,7 +16387,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16388,7 +16396,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16397,7 +16405,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16406,7 +16414,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16415,7 +16423,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16424,7 +16432,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16433,7 +16441,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16442,7 +16450,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16451,7 +16459,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
+++ b/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9CA957-9958-44D3-BCF8-6F4F6FC44E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="410">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1260,12 +1261,15 @@
   </si>
   <si>
     <t>BDAY 3/23/2023</t>
+  </si>
+  <si>
+    <t>SOLO P(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1969,25 +1973,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2294,33 +2298,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3615" topLeftCell="A538" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E546" sqref="E546"/>
+      <pane ySplit="3612" topLeftCell="A538" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="K548" sqref="K548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2345,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2359,7 +2363,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2385,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2389,7 +2393,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2402,7 +2406,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -2419,7 +2423,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2478,7 +2482,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>78</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>84</v>
       </c>
@@ -2522,7 +2526,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>79</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>80</v>
       </c>
@@ -2570,7 +2574,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>81</v>
       </c>
@@ -2594,7 +2598,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
@@ -2618,7 +2622,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>83</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
@@ -2662,7 +2666,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>86</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>87</v>
       </c>
@@ -2706,7 +2710,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>89</v>
       </c>
@@ -2724,7 +2728,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>34700</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>34731</v>
       </c>
@@ -2764,7 +2768,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>34759</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>34790</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>34820</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>34851</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -2878,7 +2882,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>34881</v>
       </c>
@@ -2898,7 +2902,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>34912</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>34943</v>
       </c>
@@ -2944,7 +2948,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>34973</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>35004</v>
       </c>
@@ -2990,7 +2994,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>35034</v>
       </c>
@@ -3010,7 +3014,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>90</v>
       </c>
@@ -3032,7 +3036,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>35065</v>
       </c>
@@ -3052,7 +3056,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>35096</v>
       </c>
@@ -3072,7 +3076,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>35125</v>
       </c>
@@ -3092,7 +3096,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>35156</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>35186</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>35217</v>
       </c>
@@ -3158,7 +3162,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>35247</v>
       </c>
@@ -3178,7 +3182,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>35278</v>
       </c>
@@ -3198,7 +3202,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>35309</v>
       </c>
@@ -3218,7 +3222,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>35339</v>
       </c>
@@ -3238,7 +3242,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>35370</v>
       </c>
@@ -3258,7 +3262,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>35400</v>
       </c>
@@ -3282,7 +3286,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>91</v>
       </c>
@@ -3304,7 +3308,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>35431</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>35462</v>
       </c>
@@ -3350,7 +3354,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>35490</v>
       </c>
@@ -3370,7 +3374,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>35521</v>
       </c>
@@ -3390,7 +3394,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>35551</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>35582</v>
       </c>
@@ -3430,7 +3434,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>35612</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>35643</v>
       </c>
@@ -3476,7 +3480,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>35674</v>
       </c>
@@ -3502,7 +3506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>35704</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>35735</v>
       </c>
@@ -3552,7 +3556,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>35765</v>
       </c>
@@ -3572,7 +3576,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>92</v>
       </c>
@@ -3594,7 +3598,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>35796</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>35827</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>35855</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <v>35886</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>35916</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>35947</v>
       </c>
@@ -3734,7 +3738,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>35977</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>113</v>
@@ -3780,7 +3784,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>36008</v>
       </c>
@@ -3806,7 +3810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>114</v>
@@ -3826,7 +3830,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>36039</v>
       </c>
@@ -3852,7 +3856,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>45</v>
@@ -3874,7 +3878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>115</v>
@@ -3894,7 +3898,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>36069</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>116</v>
@@ -3942,7 +3946,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>117</v>
@@ -3962,7 +3966,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>36100</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>119</v>
@@ -4008,7 +4012,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>36130</v>
       </c>
@@ -4034,7 +4038,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -4056,7 +4060,7 @@
         <v>36050</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>118</v>
@@ -4078,7 +4082,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -4098,7 +4102,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>105</v>
       </c>
@@ -4120,7 +4124,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>36161</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>130</v>
@@ -4166,7 +4170,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>36192</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>101</v>
@@ -4214,7 +4218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>132</v>
@@ -4234,7 +4238,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>36220</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4282,7 +4286,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>133</v>
@@ -4304,7 +4308,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>36251</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4352,7 +4356,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>134</v>
@@ -4372,7 +4376,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>36281</v>
       </c>
@@ -4398,7 +4402,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4420,7 +4424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>135</v>
@@ -4442,7 +4446,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>36312</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4490,7 +4494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>45</v>
@@ -4512,7 +4516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -4534,7 +4538,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>136</v>
@@ -4554,7 +4558,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>36342</v>
       </c>
@@ -4580,7 +4584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4602,7 +4606,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>148</v>
@@ -4622,7 +4626,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>36373</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4670,7 +4674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>36404</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>108</v>
@@ -4718,7 +4722,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4740,7 +4744,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>152</v>
@@ -4760,7 +4764,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>36434</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>45</v>
@@ -4808,7 +4812,7 @@
         <v>36321</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>45</v>
@@ -4830,7 +4834,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>36465</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>149</v>
@@ -4876,7 +4880,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>36495</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>93</v>
@@ -4924,7 +4928,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>45</v>
@@ -4946,7 +4950,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>150</v>
@@ -4966,7 +4970,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -4986,7 +4990,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>106</v>
       </c>
@@ -5008,7 +5012,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>36526</v>
       </c>
@@ -5034,7 +5038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>164</v>
@@ -5054,7 +5058,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>36557</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>165</v>
@@ -5102,7 +5106,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>36586</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>166</v>
@@ -5148,7 +5152,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>36617</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>167</v>
@@ -5194,7 +5198,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>36647</v>
       </c>
@@ -5220,7 +5224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>93</v>
@@ -5242,7 +5246,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>168</v>
@@ -5262,7 +5266,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>36678</v>
       </c>
@@ -5286,7 +5290,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>36708</v>
       </c>
@@ -5310,7 +5314,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>36739</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>36715</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>45</v>
@@ -5358,7 +5362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>170</v>
@@ -5378,7 +5382,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>36770</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>36655</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5426,7 +5430,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>185</v>
@@ -5446,7 +5450,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>36800</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>45</v>
@@ -5494,7 +5498,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>186</v>
@@ -5514,7 +5518,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>36831</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>93</v>
@@ -5562,7 +5566,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>187</v>
@@ -5582,7 +5586,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>36861</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>36750</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>71</v>
@@ -5628,7 +5632,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>188</v>
@@ -5650,7 +5654,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="48" t="s">
         <v>107</v>
       </c>
@@ -5672,7 +5676,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>36892</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>193</v>
@@ -5718,7 +5722,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>36923</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>36951</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5792,7 +5796,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>36982</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <v>37012</v>
       </c>
@@ -5844,7 +5848,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5862,7 +5866,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>37043</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -5910,7 +5914,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -5932,7 +5936,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>37073</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>37104</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>45</v>
@@ -6006,7 +6010,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <v>37135</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>37165</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -6080,7 +6084,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>101</v>
@@ -6102,7 +6106,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>101</v>
@@ -6124,7 +6128,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>37196</v>
       </c>
@@ -6144,7 +6148,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>37226</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="48" t="s">
         <v>180</v>
       </c>
@@ -6194,7 +6198,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <v>37257</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6238,7 +6242,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>37288</v>
       </c>
@@ -6258,7 +6262,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>37316</v>
       </c>
@@ -6278,7 +6282,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>37347</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>37377</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>101</v>
@@ -6352,7 +6356,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6370,7 +6374,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>37408</v>
       </c>
@@ -6396,7 +6400,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>37438</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23">
         <v>37469</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23">
         <v>37500</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>37530</v>
       </c>
@@ -6488,7 +6492,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <v>37561</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>219</v>
@@ -6538,7 +6542,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>37591</v>
       </c>
@@ -6562,7 +6566,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="48" t="s">
         <v>181</v>
       </c>
@@ -6584,7 +6588,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>37622</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>223</v>
@@ -6630,7 +6634,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>37653</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6674,7 +6678,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>37681</v>
       </c>
@@ -6698,7 +6702,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>37712</v>
       </c>
@@ -6724,7 +6728,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6742,7 +6746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>37742</v>
       </c>
@@ -6768,7 +6772,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>37773</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>37686</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>101</v>
@@ -6816,7 +6820,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>93</v>
@@ -6838,7 +6842,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>45</v>
@@ -6860,7 +6864,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>37803</v>
       </c>
@@ -6886,7 +6890,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -6908,7 +6912,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>234</v>
@@ -6928,7 +6932,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <v>37834</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>37810</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>37865</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -7002,7 +7006,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>235</v>
@@ -7022,7 +7026,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>37895</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>108</v>
@@ -7070,7 +7074,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>236</v>
@@ -7092,7 +7096,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>37926</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>37813</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>118</v>
@@ -7140,7 +7144,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>237</v>
@@ -7160,7 +7164,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>37956</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>37845</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>238</v>
@@ -7206,7 +7210,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>151</v>
@@ -7226,7 +7230,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>182</v>
       </c>
@@ -7244,7 +7248,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>37987</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>246</v>
@@ -7290,7 +7294,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>38018</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <v>38047</v>
       </c>
@@ -7340,7 +7344,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>38078</v>
       </c>
@@ -7366,7 +7370,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -7388,7 +7392,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>249</v>
@@ -7408,7 +7412,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>38108</v>
       </c>
@@ -7434,7 +7438,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>38139</v>
       </c>
@@ -7462,7 +7466,7 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>38169</v>
       </c>
@@ -7490,7 +7494,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>252</v>
@@ -7510,7 +7514,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>38200</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>38329</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>253</v>
@@ -7558,7 +7562,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>38231</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -7606,7 +7610,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7626,7 +7630,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <v>38261</v>
       </c>
@@ -7652,7 +7656,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>38292</v>
       </c>
@@ -7678,7 +7682,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>38322</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>263</v>
@@ -7724,7 +7728,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7746,7 +7750,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="48" t="s">
         <v>183</v>
       </c>
@@ -7768,7 +7772,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <v>38353</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7816,7 +7820,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>101</v>
@@ -7838,7 +7842,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>108</v>
@@ -7860,7 +7864,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>265</v>
@@ -7880,7 +7884,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>38384</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>45</v>
@@ -7928,7 +7932,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>266</v>
@@ -7950,7 +7954,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>38412</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>38443</v>
       </c>
@@ -8002,7 +8006,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>45</v>
@@ -8024,7 +8028,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>268</v>
@@ -8044,7 +8048,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <v>38473</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8090,7 +8094,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -8110,7 +8114,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>269</v>
@@ -8130,7 +8134,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23">
         <v>38504</v>
       </c>
@@ -8156,7 +8160,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>270</v>
@@ -8176,7 +8180,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>38534</v>
       </c>
@@ -8202,7 +8206,7 @@
         <v>38571</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>282</v>
@@ -8222,7 +8226,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>38565</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>283</v>
@@ -8270,7 +8274,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>46</v>
@@ -8292,7 +8296,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>284</v>
@@ -8312,7 +8316,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>38596</v>
       </c>
@@ -8338,7 +8342,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>101</v>
@@ -8360,7 +8364,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>285</v>
@@ -8380,7 +8384,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>38626</v>
       </c>
@@ -8404,7 +8408,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>38657</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>101</v>
@@ -8452,7 +8456,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>287</v>
@@ -8472,7 +8476,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>38687</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>288</v>
@@ -8518,7 +8522,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="48" t="s">
         <v>184</v>
       </c>
@@ -8540,7 +8544,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>38718</v>
       </c>
@@ -8566,7 +8570,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>101</v>
@@ -8588,7 +8592,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>294</v>
@@ -8608,7 +8612,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>38749</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>38777</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -8678,7 +8682,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>101</v>
@@ -8700,7 +8704,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>101</v>
@@ -8722,7 +8726,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>298</v>
@@ -8744,7 +8748,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8768,7 +8772,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>299</v>
@@ -8788,7 +8792,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>38838</v>
       </c>
@@ -8812,7 +8816,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <v>38869</v>
       </c>
@@ -8838,7 +8842,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>301</v>
@@ -8858,7 +8862,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <v>38899</v>
       </c>
@@ -8884,7 +8888,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>302</v>
@@ -8904,7 +8908,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>38930</v>
       </c>
@@ -8930,7 +8934,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>101</v>
@@ -8952,7 +8956,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>303</v>
@@ -8972,7 +8976,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>38961</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -9020,7 +9024,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>305</v>
@@ -9040,7 +9044,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <v>38991</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>101</v>
@@ -9088,7 +9092,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>318</v>
@@ -9108,7 +9112,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>39022</v>
       </c>
@@ -9134,7 +9138,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>319</v>
@@ -9156,7 +9160,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <v>39052</v>
       </c>
@@ -9180,7 +9184,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>320</v>
@@ -9200,7 +9204,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -9220,7 +9224,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="48" t="s">
         <v>304</v>
       </c>
@@ -9242,7 +9246,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>39083</v>
       </c>
@@ -9262,7 +9266,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>39114</v>
       </c>
@@ -9282,7 +9286,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>39142</v>
       </c>
@@ -9302,7 +9306,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>39173</v>
       </c>
@@ -9322,7 +9326,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>39203</v>
       </c>
@@ -9342,7 +9346,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>39234</v>
       </c>
@@ -9362,7 +9366,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>39264</v>
       </c>
@@ -9388,7 +9392,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>39295</v>
       </c>
@@ -9408,7 +9412,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <v>39326</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>39356</v>
       </c>
@@ -9454,7 +9458,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <v>39387</v>
       </c>
@@ -9474,7 +9478,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>39417</v>
       </c>
@@ -9498,7 +9502,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>325</v>
       </c>
@@ -9520,7 +9524,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>39448</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>39479</v>
       </c>
@@ -9566,7 +9570,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>39508</v>
       </c>
@@ -9586,7 +9590,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <v>39539</v>
       </c>
@@ -9606,7 +9610,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>39569</v>
       </c>
@@ -9630,7 +9634,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>39600</v>
       </c>
@@ -9650,7 +9654,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>39630</v>
       </c>
@@ -9670,7 +9674,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>39661</v>
       </c>
@@ -9690,7 +9694,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>39692</v>
       </c>
@@ -9710,7 +9714,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>39722</v>
       </c>
@@ -9734,7 +9738,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <v>39753</v>
       </c>
@@ -9754,7 +9758,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <v>39783</v>
       </c>
@@ -9778,7 +9782,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="48" t="s">
         <v>324</v>
       </c>
@@ -9800,7 +9804,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>39814</v>
       </c>
@@ -9820,7 +9824,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>39845</v>
       </c>
@@ -9840,7 +9844,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>39873</v>
       </c>
@@ -9860,7 +9864,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <v>39904</v>
       </c>
@@ -9880,7 +9884,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>39934</v>
       </c>
@@ -9900,7 +9904,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>39965</v>
       </c>
@@ -9920,7 +9924,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>39995</v>
       </c>
@@ -9940,7 +9944,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>40026</v>
       </c>
@@ -9960,7 +9964,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>40057</v>
       </c>
@@ -9980,7 +9984,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <v>40087</v>
       </c>
@@ -10000,7 +10004,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>40118</v>
       </c>
@@ -10020,7 +10024,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>40148</v>
       </c>
@@ -10044,7 +10048,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="48" t="s">
         <v>323</v>
       </c>
@@ -10066,7 +10070,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>40179</v>
       </c>
@@ -10086,7 +10090,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <v>40210</v>
       </c>
@@ -10106,7 +10110,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>40238</v>
       </c>
@@ -10126,7 +10130,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>40269</v>
       </c>
@@ -10146,7 +10150,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>40299</v>
       </c>
@@ -10166,7 +10170,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>40330</v>
       </c>
@@ -10186,7 +10190,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <v>40360</v>
       </c>
@@ -10206,7 +10210,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>40391</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>40422</v>
       </c>
@@ -10252,7 +10256,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <v>40452</v>
       </c>
@@ -10272,7 +10276,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <v>40483</v>
       </c>
@@ -10292,7 +10296,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <v>40513</v>
       </c>
@@ -10316,7 +10320,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="48" t="s">
         <v>332</v>
       </c>
@@ -10338,7 +10342,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <v>40544</v>
       </c>
@@ -10362,7 +10366,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>40575</v>
       </c>
@@ -10382,7 +10386,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <v>40603</v>
       </c>
@@ -10406,7 +10410,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>336</v>
@@ -10426,7 +10430,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <v>40634</v>
       </c>
@@ -10446,7 +10450,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23">
         <v>40664</v>
       </c>
@@ -10466,7 +10470,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <v>40695</v>
       </c>
@@ -10486,7 +10490,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <v>40725</v>
       </c>
@@ -10506,7 +10510,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <v>40756</v>
       </c>
@@ -10526,7 +10530,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <v>40787</v>
       </c>
@@ -10546,7 +10550,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <v>40817</v>
       </c>
@@ -10566,7 +10570,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <v>40848</v>
       </c>
@@ -10586,7 +10590,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <v>40878</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>59</v>
@@ -10630,7 +10634,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>337</v>
@@ -10648,7 +10652,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="48" t="s">
         <v>333</v>
       </c>
@@ -10670,7 +10674,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <v>40909</v>
       </c>
@@ -10694,7 +10698,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <v>40940</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>57</v>
@@ -10740,7 +10744,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>344</v>
@@ -10760,7 +10764,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <v>40969</v>
       </c>
@@ -10786,7 +10790,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <v>41000</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -10832,7 +10836,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>346</v>
@@ -10854,7 +10858,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <v>41030</v>
       </c>
@@ -10882,7 +10886,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>347</v>
@@ -10906,7 +10910,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <v>41061</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>348</v>
@@ -10954,7 +10958,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <v>41091</v>
       </c>
@@ -10982,7 +10986,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>350</v>
@@ -11006,7 +11010,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <v>41122</v>
       </c>
@@ -11028,7 +11032,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>349</v>
@@ -11050,7 +11054,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <v>41153</v>
       </c>
@@ -11074,7 +11078,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>108</v>
@@ -11098,7 +11102,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>351</v>
@@ -11118,7 +11122,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <v>41183</v>
       </c>
@@ -11144,7 +11148,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>352</v>
@@ -11166,7 +11170,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23">
         <v>41214</v>
       </c>
@@ -11190,7 +11194,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>353</v>
@@ -11210,7 +11214,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <v>41244</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>71</v>
@@ -11258,7 +11262,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>354</v>
@@ -11280,7 +11284,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>46</v>
@@ -11300,7 +11304,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="48" t="s">
         <v>334</v>
       </c>
@@ -11322,7 +11326,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <v>41275</v>
       </c>
@@ -11342,7 +11346,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <v>41306</v>
       </c>
@@ -11364,7 +11368,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <v>41334</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23">
         <v>41365</v>
       </c>
@@ -11408,7 +11412,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23">
         <v>41395</v>
       </c>
@@ -11428,7 +11432,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23">
         <v>41426</v>
       </c>
@@ -11452,7 +11456,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23">
         <v>41456</v>
       </c>
@@ -11472,7 +11476,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <v>41487</v>
       </c>
@@ -11492,7 +11496,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <v>41518</v>
       </c>
@@ -11512,7 +11516,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23">
         <v>41548</v>
       </c>
@@ -11538,7 +11542,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <v>41579</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>73</v>
@@ -11586,7 +11590,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23">
         <v>41609</v>
       </c>
@@ -11612,7 +11616,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="48" t="s">
         <v>335</v>
       </c>
@@ -11634,7 +11638,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23">
         <v>41640</v>
       </c>
@@ -11654,7 +11658,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="23">
         <v>41671</v>
       </c>
@@ -11674,7 +11678,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <v>41699</v>
       </c>
@@ -11698,7 +11702,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23">
         <v>41730</v>
       </c>
@@ -11724,7 +11728,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23">
         <v>41760</v>
       </c>
@@ -11750,7 +11754,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23">
         <v>41791</v>
       </c>
@@ -11776,7 +11780,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <v>41821</v>
       </c>
@@ -11796,7 +11800,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23">
         <v>41852</v>
       </c>
@@ -11822,7 +11826,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -11842,7 +11846,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <v>41883</v>
       </c>
@@ -11868,7 +11872,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23">
         <v>41913</v>
       </c>
@@ -11888,7 +11892,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23">
         <v>41944</v>
       </c>
@@ -11908,7 +11912,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23">
         <v>41974</v>
       </c>
@@ -11932,7 +11936,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="48" t="s">
         <v>375</v>
       </c>
@@ -11954,7 +11958,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23">
         <v>42005</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <v>42036</v>
       </c>
@@ -12000,7 +12004,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23">
         <v>42064</v>
       </c>
@@ -12024,7 +12028,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23">
         <v>42095</v>
       </c>
@@ -12044,7 +12048,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23">
         <v>42125</v>
       </c>
@@ -12064,7 +12068,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <v>42156</v>
       </c>
@@ -12084,7 +12088,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23">
         <v>42186</v>
       </c>
@@ -12104,7 +12108,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <v>42217</v>
       </c>
@@ -12130,7 +12134,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>386</v>
@@ -12152,7 +12156,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <v>42248</v>
       </c>
@@ -12172,7 +12176,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23">
         <v>42278</v>
       </c>
@@ -12192,7 +12196,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <v>42309</v>
       </c>
@@ -12212,7 +12216,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23">
         <v>42339</v>
       </c>
@@ -12236,7 +12240,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="48" t="s">
         <v>377</v>
       </c>
@@ -12258,7 +12262,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <v>42370</v>
       </c>
@@ -12278,7 +12282,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23">
         <v>42401</v>
       </c>
@@ -12298,7 +12302,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23">
         <v>42430</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23">
         <v>42461</v>
       </c>
@@ -12346,7 +12350,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <v>42491</v>
       </c>
@@ -12370,7 +12374,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="23">
         <v>42522</v>
       </c>
@@ -12394,7 +12398,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <v>42552</v>
       </c>
@@ -12418,7 +12422,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23">
         <v>42583</v>
       </c>
@@ -12444,7 +12448,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>395</v>
@@ -12466,7 +12470,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <v>42614</v>
       </c>
@@ -12492,7 +12496,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>108</v>
@@ -12514,7 +12518,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23">
         <v>42644</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>397</v>
@@ -12560,7 +12564,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23">
         <v>42675</v>
       </c>
@@ -12584,7 +12588,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23">
         <v>42705</v>
       </c>
@@ -12608,7 +12612,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="48" t="s">
         <v>376</v>
       </c>
@@ -12630,7 +12634,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23">
         <v>42736</v>
       </c>
@@ -12650,7 +12654,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23">
         <v>42767</v>
       </c>
@@ -12670,7 +12674,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <v>42795</v>
       </c>
@@ -12690,7 +12694,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <v>42826</v>
       </c>
@@ -12716,7 +12720,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <v>42856</v>
       </c>
@@ -12736,7 +12740,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <v>42887</v>
       </c>
@@ -12756,7 +12760,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23">
         <v>42917</v>
       </c>
@@ -12776,7 +12780,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23">
         <v>42948</v>
       </c>
@@ -12796,7 +12800,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <v>42979</v>
       </c>
@@ -12816,7 +12820,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23">
         <v>43009</v>
       </c>
@@ -12836,7 +12840,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <v>43040</v>
       </c>
@@ -12856,7 +12860,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23">
         <v>43070</v>
       </c>
@@ -12880,7 +12884,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="48" t="s">
         <v>44</v>
       </c>
@@ -12902,7 +12906,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43101</v>
       </c>
@@ -12922,7 +12926,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43132</v>
       </c>
@@ -12948,7 +12952,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43160</v>
       </c>
@@ -12968,7 +12972,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43191</v>
       </c>
@@ -12988,7 +12992,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43221</v>
       </c>
@@ -13008,7 +13012,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43252</v>
       </c>
@@ -13028,7 +13032,7 @@
       <c r="J479" s="12"/>
       <c r="K479" s="15"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>43282</v>
       </c>
@@ -13054,7 +13058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -13074,7 +13078,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43344</v>
       </c>
@@ -13094,7 +13098,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43374</v>
       </c>
@@ -13114,7 +13118,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>43405</v>
       </c>
@@ -13134,7 +13138,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43435</v>
       </c>
@@ -13160,7 +13164,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="48" t="s">
         <v>50</v>
       </c>
@@ -13178,7 +13182,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -13198,7 +13202,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -13218,7 +13222,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -13244,7 +13248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -13264,7 +13268,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -13284,7 +13288,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>43617</v>
       </c>
@@ -13304,7 +13308,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43647</v>
       </c>
@@ -13324,7 +13328,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43678</v>
       </c>
@@ -13344,7 +13348,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43709</v>
       </c>
@@ -13364,7 +13368,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43739</v>
       </c>
@@ -13384,7 +13388,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>43770</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>43800</v>
       </c>
@@ -13430,7 +13434,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="48" t="s">
         <v>54</v>
       </c>
@@ -13448,7 +13452,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43831</v>
       </c>
@@ -13472,7 +13476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>56</v>
@@ -13489,7 +13493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>43862</v>
       </c>
@@ -13509,7 +13513,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>58</v>
@@ -13552,7 +13556,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>43922</v>
       </c>
@@ -13572,7 +13576,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43952</v>
       </c>
@@ -13592,7 +13596,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>43983</v>
       </c>
@@ -13612,7 +13616,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13632,7 +13636,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13652,7 +13656,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13672,7 +13676,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13692,7 +13696,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13712,7 +13716,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13736,7 +13740,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>63</v>
       </c>
@@ -13754,7 +13758,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13774,7 +13778,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44228</v>
       </c>
@@ -13794,7 +13798,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44256</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>44287</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13868,7 +13872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44317</v>
       </c>
@@ -13892,7 +13896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44348</v>
       </c>
@@ -13912,7 +13916,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44378</v>
       </c>
@@ -13932,7 +13936,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44409</v>
       </c>
@@ -13952,7 +13956,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44440</v>
       </c>
@@ -13972,7 +13976,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44470</v>
       </c>
@@ -13992,7 +13996,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44501</v>
       </c>
@@ -14012,7 +14016,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44531</v>
       </c>
@@ -14038,7 +14042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="48" t="s">
         <v>70</v>
       </c>
@@ -14056,7 +14060,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44562</v>
       </c>
@@ -14076,7 +14080,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44593</v>
       </c>
@@ -14096,7 +14100,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44621</v>
       </c>
@@ -14116,7 +14120,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>44652</v>
       </c>
@@ -14136,7 +14140,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44682</v>
       </c>
@@ -14156,7 +14160,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44713</v>
       </c>
@@ -14176,7 +14180,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44743</v>
       </c>
@@ -14196,7 +14200,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44774</v>
       </c>
@@ -14216,7 +14220,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44805</v>
       </c>
@@ -14236,7 +14240,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44835</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>44840</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>57</v>
@@ -14280,7 +14284,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44866</v>
       </c>
@@ -14306,7 +14310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>57</v>
@@ -14326,7 +14330,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44896</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="48" t="s">
         <v>75</v>
       </c>
@@ -14370,7 +14374,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44927</v>
       </c>
@@ -14390,7 +14394,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44958</v>
       </c>
@@ -14414,7 +14418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44986</v>
       </c>
@@ -14438,11 +14442,13 @@
         <v>408</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45017</v>
       </c>
-      <c r="B547" s="20"/>
+      <c r="B547" s="20" t="s">
+        <v>409</v>
+      </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
@@ -14454,9 +14460,11 @@
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
-    </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K547" s="49">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45047</v>
       </c>
@@ -14474,7 +14482,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45078</v>
       </c>
@@ -14492,7 +14500,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45108</v>
       </c>
@@ -14510,7 +14518,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45139</v>
       </c>
@@ -14528,7 +14536,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45170</v>
       </c>
@@ -14546,7 +14554,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45200</v>
       </c>
@@ -14564,7 +14572,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45231</v>
       </c>
@@ -14582,7 +14590,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45261</v>
       </c>
@@ -14600,7 +14608,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45292</v>
       </c>
@@ -14618,7 +14626,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45323</v>
       </c>
@@ -14636,7 +14644,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45352</v>
       </c>
@@ -14654,7 +14662,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45383</v>
       </c>
@@ -14672,7 +14680,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45413</v>
       </c>
@@ -14690,7 +14698,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45444</v>
       </c>
@@ -14708,7 +14716,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45474</v>
       </c>
@@ -14726,7 +14734,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45505</v>
       </c>
@@ -14744,7 +14752,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45536</v>
       </c>
@@ -14762,7 +14770,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45566</v>
       </c>
@@ -14780,7 +14788,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45597</v>
       </c>
@@ -14798,7 +14806,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45627</v>
       </c>
@@ -14816,7 +14824,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45658</v>
       </c>
@@ -14834,7 +14842,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45689</v>
       </c>
@@ -14852,7 +14860,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45717</v>
       </c>
@@ -14870,7 +14878,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45748</v>
       </c>
@@ -14888,7 +14896,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45778</v>
       </c>
@@ -14906,7 +14914,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45809</v>
       </c>
@@ -14924,7 +14932,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45839</v>
       </c>
@@ -14942,7 +14950,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45870</v>
       </c>
@@ -14960,7 +14968,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45901</v>
       </c>
@@ -14978,7 +14986,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45931</v>
       </c>
@@ -14996,7 +15004,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45962</v>
       </c>
@@ -15014,7 +15022,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45992</v>
       </c>
@@ -15032,7 +15040,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>46023</v>
       </c>
@@ -15050,7 +15058,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>46054</v>
       </c>
@@ -15068,7 +15076,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>46082</v>
       </c>
@@ -15086,7 +15094,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>46113</v>
       </c>
@@ -15104,7 +15112,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>46143</v>
       </c>
@@ -15122,7 +15130,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>46174</v>
       </c>
@@ -15140,7 +15148,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>46204</v>
       </c>
@@ -15158,7 +15166,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>46235</v>
       </c>
@@ -15176,7 +15184,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>46266</v>
       </c>
@@ -15194,7 +15202,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>46296</v>
       </c>
@@ -15212,7 +15220,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>46327</v>
       </c>
@@ -15230,7 +15238,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>46357</v>
       </c>
@@ -15248,7 +15256,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15264,7 +15272,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15280,7 +15288,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15296,7 +15304,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15312,7 +15320,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15328,7 +15336,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="41"/>
       <c r="B597" s="15"/>
       <c r="C597" s="42"/>
@@ -15359,10 +15367,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15385,28 +15393,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -15419,7 +15427,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15448,7 +15456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>81.95</v>
       </c>
@@ -15478,17 +15486,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15509,7 +15517,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15536,7 +15544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15562,7 +15570,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15588,7 +15596,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15614,7 +15622,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15640,7 +15648,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15666,7 +15674,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15692,7 +15700,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15718,7 +15726,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15738,7 +15746,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15758,7 +15766,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15778,7 +15786,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15799,7 +15807,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15820,7 +15828,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15841,7 +15849,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15862,7 +15870,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15883,7 +15891,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15904,7 +15912,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15925,7 +15933,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15946,7 +15954,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15967,7 +15975,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15988,7 +15996,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16009,7 +16017,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16030,7 +16038,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16051,7 +16059,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16072,7 +16080,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16093,7 +16101,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16114,7 +16122,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16135,7 +16143,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16156,7 +16164,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16177,7 +16185,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16198,7 +16206,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16207,7 +16215,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16216,7 +16224,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16225,7 +16233,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16234,7 +16242,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16243,7 +16251,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16252,7 +16260,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16261,7 +16269,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16270,7 +16278,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16279,7 +16287,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16288,7 +16296,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16297,7 +16305,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16306,7 +16314,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16315,7 +16323,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16324,7 +16332,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16333,7 +16341,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16342,7 +16350,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16351,7 +16359,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16360,7 +16368,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16369,7 +16377,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16378,7 +16386,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16387,7 +16395,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16396,7 +16404,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16405,7 +16413,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16414,7 +16422,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16423,7 +16431,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16432,7 +16440,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16441,7 +16449,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16450,7 +16458,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16459,7 +16467,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
+++ b/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9CA957-9958-44D3-BCF8-6F4F6FC44E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="411">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1264,12 +1263,15 @@
   </si>
   <si>
     <t>SOLO P(1-0-0)</t>
+  </si>
+  <si>
+    <t>5/31, 6/1,3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1973,25 +1975,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2298,33 +2300,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3612" topLeftCell="A538" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K548" sqref="K548"/>
+      <pane ySplit="3720" topLeftCell="A538" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2345,7 +2347,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2365,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2385,7 +2387,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2393,7 +2395,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2406,7 +2408,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -2423,7 +2425,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2467,7 +2469,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>132.09000000000003</v>
+        <v>130.34000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2477,12 +2479,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.04200000000003</v>
+        <v>235.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>78</v>
       </c>
@@ -2502,7 +2504,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>84</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>79</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>80</v>
       </c>
@@ -2574,7 +2576,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>81</v>
       </c>
@@ -2598,7 +2600,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
@@ -2622,7 +2624,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>83</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>86</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>87</v>
       </c>
@@ -2710,7 +2712,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>89</v>
       </c>
@@ -2728,7 +2730,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>34700</v>
       </c>
@@ -2748,7 +2750,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>34731</v>
       </c>
@@ -2768,7 +2770,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>34759</v>
       </c>
@@ -2788,7 +2790,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>34790</v>
       </c>
@@ -2808,7 +2810,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>34820</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34851</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>45</v>
@@ -2882,7 +2884,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34881</v>
       </c>
@@ -2902,7 +2904,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>34912</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34943</v>
       </c>
@@ -2948,7 +2950,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>34973</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>35004</v>
       </c>
@@ -2994,7 +2996,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>35034</v>
       </c>
@@ -3014,7 +3016,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>90</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>35065</v>
       </c>
@@ -3056,7 +3058,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>35096</v>
       </c>
@@ -3076,7 +3078,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>35125</v>
       </c>
@@ -3096,7 +3098,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>35156</v>
       </c>
@@ -3116,7 +3118,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>35186</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>35217</v>
       </c>
@@ -3162,7 +3164,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>35247</v>
       </c>
@@ -3182,7 +3184,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>35278</v>
       </c>
@@ -3202,7 +3204,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>35309</v>
       </c>
@@ -3222,7 +3224,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>35339</v>
       </c>
@@ -3242,7 +3244,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>35370</v>
       </c>
@@ -3262,7 +3264,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>35400</v>
       </c>
@@ -3286,7 +3288,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>91</v>
       </c>
@@ -3308,7 +3310,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>35431</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>35612</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>35462</v>
       </c>
@@ -3354,7 +3356,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>35490</v>
       </c>
@@ -3374,7 +3376,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>35521</v>
       </c>
@@ -3394,7 +3396,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>35551</v>
       </c>
@@ -3414,7 +3416,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>35582</v>
       </c>
@@ -3434,7 +3436,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>35612</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35643</v>
       </c>
@@ -3480,7 +3482,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>35674</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>35704</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>35735</v>
       </c>
@@ -3556,7 +3558,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35765</v>
       </c>
@@ -3576,7 +3578,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>92</v>
       </c>
@@ -3598,7 +3600,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>35796</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>35827</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>35855</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>35886</v>
       </c>
@@ -3690,7 +3692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>35916</v>
       </c>
@@ -3714,7 +3716,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>35947</v>
       </c>
@@ -3738,7 +3740,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>35977</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>113</v>
@@ -3784,7 +3786,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>36008</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="20" t="s">
         <v>114</v>
@@ -3830,7 +3832,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>36039</v>
       </c>
@@ -3856,7 +3858,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>45</v>
@@ -3878,7 +3880,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>115</v>
@@ -3898,7 +3900,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>36069</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>116</v>
@@ -3946,7 +3948,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>117</v>
@@ -3966,7 +3968,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36100</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>119</v>
@@ -4012,7 +4014,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>36130</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>36019</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>45</v>
@@ -4060,7 +4062,7 @@
         <v>36050</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>118</v>
@@ -4082,7 +4084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -4102,7 +4104,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>105</v>
       </c>
@@ -4124,7 +4126,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>36161</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="20" t="s">
         <v>130</v>
@@ -4170,7 +4172,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>36192</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>101</v>
@@ -4218,7 +4220,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>132</v>
@@ -4238,7 +4240,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>36220</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>45</v>
@@ -4286,7 +4288,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>133</v>
@@ -4308,7 +4310,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>36251</v>
       </c>
@@ -4334,7 +4336,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>45</v>
@@ -4356,7 +4358,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>134</v>
@@ -4376,7 +4378,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>36281</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>36285</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>45</v>
@@ -4424,7 +4426,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>135</v>
@@ -4446,7 +4448,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36312</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>45</v>
@@ -4494,7 +4496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>45</v>
@@ -4516,7 +4518,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -4538,7 +4540,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>136</v>
@@ -4558,7 +4560,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>36342</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4606,7 +4608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>148</v>
@@ -4626,7 +4628,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>36373</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>45</v>
@@ -4674,7 +4676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>36404</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>108</v>
@@ -4722,7 +4724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="20" t="s">
         <v>45</v>
@@ -4744,7 +4746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>152</v>
@@ -4764,7 +4766,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>36434</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>45</v>
@@ -4812,7 +4814,7 @@
         <v>36321</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>45</v>
@@ -4834,7 +4836,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>36465</v>
       </c>
@@ -4860,7 +4862,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>149</v>
@@ -4880,7 +4882,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>36495</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>93</v>
@@ -4928,7 +4930,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>45</v>
@@ -4950,7 +4952,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>150</v>
@@ -4970,7 +4972,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -4990,7 +4992,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>106</v>
       </c>
@@ -5012,7 +5014,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>36526</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>164</v>
@@ -5058,7 +5060,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>36557</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>165</v>
@@ -5106,7 +5108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>36586</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>166</v>
@@ -5152,7 +5154,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>36617</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>167</v>
@@ -5198,7 +5200,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>36647</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>93</v>
@@ -5246,7 +5248,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>168</v>
@@ -5266,7 +5268,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>36678</v>
       </c>
@@ -5290,7 +5292,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>36708</v>
       </c>
@@ -5314,7 +5316,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>36739</v>
       </c>
@@ -5340,7 +5342,7 @@
         <v>36715</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>45</v>
@@ -5362,7 +5364,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>170</v>
@@ -5382,7 +5384,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>36770</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>36655</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>101</v>
@@ -5430,7 +5432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>185</v>
@@ -5450,7 +5452,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>36800</v>
       </c>
@@ -5476,7 +5478,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>45</v>
@@ -5498,7 +5500,7 @@
         <v>36656</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>186</v>
@@ -5518,7 +5520,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>36831</v>
       </c>
@@ -5544,7 +5546,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>93</v>
@@ -5566,7 +5568,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>187</v>
@@ -5586,7 +5588,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>36861</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>36750</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>71</v>
@@ -5632,7 +5634,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>188</v>
@@ -5654,7 +5656,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>107</v>
       </c>
@@ -5676,7 +5678,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>36892</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>37165</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>193</v>
@@ -5722,7 +5724,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>36923</v>
       </c>
@@ -5748,7 +5750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>36951</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5796,7 +5798,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>36982</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>37012</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5866,7 +5868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>37043</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -5914,7 +5916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -5936,7 +5938,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>37073</v>
       </c>
@@ -5962,7 +5964,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>37104</v>
       </c>
@@ -5988,7 +5990,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>45</v>
@@ -6010,7 +6012,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>37135</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37165</v>
       </c>
@@ -6062,7 +6064,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>45</v>
@@ -6084,7 +6086,7 @@
         <v>37021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>101</v>
@@ -6106,7 +6108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>101</v>
@@ -6128,7 +6130,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>37196</v>
       </c>
@@ -6148,7 +6150,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>37226</v>
       </c>
@@ -6180,7 +6182,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>180</v>
       </c>
@@ -6198,7 +6200,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>37257</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -6242,7 +6244,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>37288</v>
       </c>
@@ -6262,7 +6264,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>37316</v>
       </c>
@@ -6282,7 +6284,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>37347</v>
       </c>
@@ -6308,7 +6310,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>37377</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>101</v>
@@ -6356,7 +6358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -6374,7 +6376,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>37408</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>37438</v>
       </c>
@@ -6420,7 +6422,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>37469</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>37500</v>
       </c>
@@ -6472,7 +6474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>37530</v>
       </c>
@@ -6492,7 +6494,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>37561</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>219</v>
@@ -6542,7 +6544,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>37591</v>
       </c>
@@ -6566,7 +6568,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="48" t="s">
         <v>181</v>
       </c>
@@ -6588,7 +6590,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>37622</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>223</v>
@@ -6634,7 +6636,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>37653</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6678,7 +6680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>37681</v>
       </c>
@@ -6702,7 +6704,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>37712</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -6746,7 +6748,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>37742</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>37773</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>37686</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>101</v>
@@ -6820,7 +6822,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>93</v>
@@ -6842,7 +6844,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>45</v>
@@ -6864,7 +6866,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>37803</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>37809</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -6912,7 +6914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>234</v>
@@ -6932,7 +6934,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>37834</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>37810</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>37865</v>
       </c>
@@ -6984,7 +6986,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>45</v>
@@ -7006,7 +7008,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>235</v>
@@ -7026,7 +7028,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>37895</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>108</v>
@@ -7074,7 +7076,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>236</v>
@@ -7096,7 +7098,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>37926</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>37813</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>118</v>
@@ -7144,7 +7146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>237</v>
@@ -7164,7 +7166,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>37956</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>37845</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>238</v>
@@ -7210,7 +7212,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>151</v>
@@ -7230,7 +7232,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>182</v>
       </c>
@@ -7248,7 +7250,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>37987</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>246</v>
@@ -7294,7 +7296,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38018</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>38047</v>
       </c>
@@ -7344,7 +7346,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>38078</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>45</v>
@@ -7392,7 +7394,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>249</v>
@@ -7412,7 +7414,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>38108</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>38139</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>38169</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>252</v>
@@ -7514,7 +7516,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>38200</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>38329</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>253</v>
@@ -7562,7 +7564,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>38231</v>
       </c>
@@ -7588,7 +7590,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -7610,7 +7612,7 @@
         <v>38239</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7630,7 +7632,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>38261</v>
       </c>
@@ -7656,7 +7658,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>38292</v>
       </c>
@@ -7682,7 +7684,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>38322</v>
       </c>
@@ -7708,7 +7710,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>263</v>
@@ -7728,7 +7730,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7750,7 +7752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="48" t="s">
         <v>183</v>
       </c>
@@ -7772,7 +7774,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>38353</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7820,7 +7822,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>101</v>
@@ -7842,7 +7844,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>108</v>
@@ -7864,7 +7866,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>265</v>
@@ -7884,7 +7886,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>38384</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>45</v>
@@ -7932,7 +7934,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>266</v>
@@ -7954,7 +7956,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>38412</v>
       </c>
@@ -7980,7 +7982,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>38443</v>
       </c>
@@ -8006,7 +8008,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>45</v>
@@ -8028,7 +8030,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>268</v>
@@ -8048,7 +8050,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>38473</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>45</v>
@@ -8094,7 +8096,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>57</v>
@@ -8114,7 +8116,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>269</v>
@@ -8134,7 +8136,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>38504</v>
       </c>
@@ -8160,7 +8162,7 @@
         <v>38539</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>270</v>
@@ -8180,7 +8182,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>38534</v>
       </c>
@@ -8206,7 +8208,7 @@
         <v>38571</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>282</v>
@@ -8226,7 +8228,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>38565</v>
       </c>
@@ -8252,7 +8254,7 @@
         <v>38603</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>283</v>
@@ -8274,7 +8276,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>46</v>
@@ -8296,7 +8298,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>284</v>
@@ -8316,7 +8318,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>38596</v>
       </c>
@@ -8342,7 +8344,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>101</v>
@@ -8364,7 +8366,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>285</v>
@@ -8384,7 +8386,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>38626</v>
       </c>
@@ -8408,7 +8410,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>38657</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>38575</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>101</v>
@@ -8456,7 +8458,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>287</v>
@@ -8476,7 +8478,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>38687</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>288</v>
@@ -8522,7 +8524,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="48" t="s">
         <v>184</v>
       </c>
@@ -8544,7 +8546,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>38718</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>101</v>
@@ -8592,7 +8594,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>294</v>
@@ -8612,7 +8614,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <v>38749</v>
       </c>
@@ -8636,7 +8638,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>38777</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>57</v>
@@ -8682,7 +8684,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>101</v>
@@ -8704,7 +8706,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>101</v>
@@ -8726,7 +8728,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>298</v>
@@ -8748,7 +8750,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>38808</v>
       </c>
@@ -8772,7 +8774,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>299</v>
@@ -8792,7 +8794,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>38838</v>
       </c>
@@ -8816,7 +8818,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>38869</v>
       </c>
@@ -8842,7 +8844,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>301</v>
@@ -8862,7 +8864,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>38899</v>
       </c>
@@ -8888,7 +8890,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>302</v>
@@ -8908,7 +8910,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>38930</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>101</v>
@@ -8956,7 +8958,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>303</v>
@@ -8976,7 +8978,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <v>38961</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>224</v>
@@ -9024,7 +9026,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>305</v>
@@ -9044,7 +9046,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>38991</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23"/>
       <c r="B299" s="20" t="s">
         <v>101</v>
@@ -9092,7 +9094,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>318</v>
@@ -9112,7 +9114,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <v>39022</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>319</v>
@@ -9160,7 +9162,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>39052</v>
       </c>
@@ -9184,7 +9186,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>320</v>
@@ -9204,7 +9206,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>59</v>
@@ -9224,7 +9226,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>304</v>
       </c>
@@ -9246,7 +9248,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>39083</v>
       </c>
@@ -9266,7 +9268,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>39114</v>
       </c>
@@ -9286,7 +9288,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>39142</v>
       </c>
@@ -9306,7 +9308,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <v>39173</v>
       </c>
@@ -9326,7 +9328,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <v>39203</v>
       </c>
@@ -9346,7 +9348,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>39234</v>
       </c>
@@ -9366,7 +9368,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>39264</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>39295</v>
       </c>
@@ -9412,7 +9414,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>39326</v>
       </c>
@@ -9438,7 +9440,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <v>39356</v>
       </c>
@@ -9458,7 +9460,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>39387</v>
       </c>
@@ -9478,7 +9480,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <v>39417</v>
       </c>
@@ -9502,7 +9504,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>325</v>
       </c>
@@ -9524,7 +9526,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>39448</v>
       </c>
@@ -9550,7 +9552,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <v>39479</v>
       </c>
@@ -9570,7 +9572,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>39508</v>
       </c>
@@ -9590,7 +9592,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>39539</v>
       </c>
@@ -9610,7 +9612,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>39569</v>
       </c>
@@ -9634,7 +9636,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>39600</v>
       </c>
@@ -9654,7 +9656,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>39630</v>
       </c>
@@ -9674,7 +9676,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>39661</v>
       </c>
@@ -9694,7 +9696,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <v>39692</v>
       </c>
@@ -9714,7 +9716,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <v>39722</v>
       </c>
@@ -9738,7 +9740,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>39753</v>
       </c>
@@ -9758,7 +9760,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>39783</v>
       </c>
@@ -9782,7 +9784,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>324</v>
       </c>
@@ -9804,7 +9806,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>39814</v>
       </c>
@@ -9824,7 +9826,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <v>39845</v>
       </c>
@@ -9844,7 +9846,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>39873</v>
       </c>
@@ -9864,7 +9866,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>39904</v>
       </c>
@@ -9884,7 +9886,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>39934</v>
       </c>
@@ -9904,7 +9906,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>39965</v>
       </c>
@@ -9924,7 +9926,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>39995</v>
       </c>
@@ -9944,7 +9946,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40026</v>
       </c>
@@ -9964,7 +9966,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <v>40057</v>
       </c>
@@ -9984,7 +9986,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40087</v>
       </c>
@@ -10004,7 +10006,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>40118</v>
       </c>
@@ -10024,7 +10026,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>40148</v>
       </c>
@@ -10048,7 +10050,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>323</v>
       </c>
@@ -10070,7 +10072,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>40179</v>
       </c>
@@ -10090,7 +10092,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40210</v>
       </c>
@@ -10110,7 +10112,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40238</v>
       </c>
@@ -10130,7 +10132,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40269</v>
       </c>
@@ -10150,7 +10152,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40299</v>
       </c>
@@ -10170,7 +10172,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>40330</v>
       </c>
@@ -10190,7 +10192,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40360</v>
       </c>
@@ -10210,7 +10212,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>40391</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <v>40422</v>
       </c>
@@ -10256,7 +10258,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40452</v>
       </c>
@@ -10276,7 +10278,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40483</v>
       </c>
@@ -10296,7 +10298,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <v>40513</v>
       </c>
@@ -10320,7 +10322,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="48" t="s">
         <v>332</v>
       </c>
@@ -10342,7 +10344,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>40544</v>
       </c>
@@ -10366,7 +10368,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>40575</v>
       </c>
@@ -10386,7 +10388,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <v>40603</v>
       </c>
@@ -10410,7 +10412,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>336</v>
@@ -10430,7 +10432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>40634</v>
       </c>
@@ -10450,7 +10452,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>40664</v>
       </c>
@@ -10470,7 +10472,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>40695</v>
       </c>
@@ -10490,7 +10492,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>40725</v>
       </c>
@@ -10510,7 +10512,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>40756</v>
       </c>
@@ -10530,7 +10532,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>40787</v>
       </c>
@@ -10550,7 +10552,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>40817</v>
       </c>
@@ -10570,7 +10572,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>40848</v>
       </c>
@@ -10590,7 +10592,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>40878</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>59</v>
@@ -10634,7 +10636,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>337</v>
@@ -10652,7 +10654,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>333</v>
       </c>
@@ -10674,7 +10676,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>40909</v>
       </c>
@@ -10698,7 +10700,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>40940</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>57</v>
@@ -10744,7 +10746,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>344</v>
@@ -10764,7 +10766,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>40969</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41000</v>
       </c>
@@ -10814,7 +10816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>57</v>
@@ -10836,7 +10838,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>346</v>
@@ -10858,7 +10860,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>41030</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>347</v>
@@ -10910,7 +10912,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>41061</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>348</v>
@@ -10958,7 +10960,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41091</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>350</v>
@@ -11010,7 +11012,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41122</v>
       </c>
@@ -11032,7 +11034,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>349</v>
@@ -11054,7 +11056,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>41153</v>
       </c>
@@ -11078,7 +11080,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>108</v>
@@ -11102,7 +11104,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>351</v>
@@ -11122,7 +11124,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>41183</v>
       </c>
@@ -11148,7 +11150,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>352</v>
@@ -11170,7 +11172,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>41214</v>
       </c>
@@ -11194,7 +11196,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>353</v>
@@ -11214,7 +11216,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>41244</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>71</v>
@@ -11262,7 +11264,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>354</v>
@@ -11284,7 +11286,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>46</v>
@@ -11304,7 +11306,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>334</v>
       </c>
@@ -11326,7 +11328,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>41275</v>
       </c>
@@ -11346,7 +11348,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>41306</v>
       </c>
@@ -11368,7 +11370,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>41334</v>
       </c>
@@ -11392,7 +11394,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>41365</v>
       </c>
@@ -11412,7 +11414,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>41395</v>
       </c>
@@ -11432,7 +11434,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>41426</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>41456</v>
       </c>
@@ -11476,7 +11478,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>41487</v>
       </c>
@@ -11496,7 +11498,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>41518</v>
       </c>
@@ -11516,7 +11518,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>41548</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>41579</v>
       </c>
@@ -11568,7 +11570,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>73</v>
@@ -11590,7 +11592,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>41609</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="48" t="s">
         <v>335</v>
       </c>
@@ -11638,7 +11640,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>41640</v>
       </c>
@@ -11658,7 +11660,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>41671</v>
       </c>
@@ -11678,7 +11680,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>41699</v>
       </c>
@@ -11702,7 +11704,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>41730</v>
       </c>
@@ -11728,7 +11730,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>41760</v>
       </c>
@@ -11754,7 +11756,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>41791</v>
       </c>
@@ -11780,7 +11782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>41821</v>
       </c>
@@ -11800,7 +11802,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>41852</v>
       </c>
@@ -11826,7 +11828,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>57</v>
@@ -11846,7 +11848,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>41883</v>
       </c>
@@ -11872,7 +11874,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>41913</v>
       </c>
@@ -11892,7 +11894,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <v>41944</v>
       </c>
@@ -11912,7 +11914,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>41974</v>
       </c>
@@ -11936,7 +11938,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="48" t="s">
         <v>375</v>
       </c>
@@ -11958,7 +11960,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <v>42005</v>
       </c>
@@ -11984,7 +11986,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>42036</v>
       </c>
@@ -12004,7 +12006,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42064</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>42095</v>
       </c>
@@ -12048,7 +12050,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>42125</v>
       </c>
@@ -12068,7 +12070,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <v>42156</v>
       </c>
@@ -12088,7 +12090,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>42186</v>
       </c>
@@ -12108,7 +12110,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>42217</v>
       </c>
@@ -12134,7 +12136,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>386</v>
@@ -12156,7 +12158,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>42248</v>
       </c>
@@ -12176,7 +12178,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <v>42278</v>
       </c>
@@ -12196,7 +12198,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <v>42309</v>
       </c>
@@ -12216,7 +12218,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>42339</v>
       </c>
@@ -12240,7 +12242,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="48" t="s">
         <v>377</v>
       </c>
@@ -12262,7 +12264,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>42370</v>
       </c>
@@ -12282,7 +12284,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>42401</v>
       </c>
@@ -12302,7 +12304,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <v>42430</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23">
         <v>42461</v>
       </c>
@@ -12350,7 +12352,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <v>42491</v>
       </c>
@@ -12374,7 +12376,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>42522</v>
       </c>
@@ -12398,7 +12400,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>42552</v>
       </c>
@@ -12422,7 +12424,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <v>42583</v>
       </c>
@@ -12448,7 +12450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>395</v>
@@ -12470,7 +12472,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <v>42614</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>108</v>
@@ -12518,7 +12520,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>42644</v>
       </c>
@@ -12544,7 +12546,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>397</v>
@@ -12564,7 +12566,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>42675</v>
       </c>
@@ -12588,7 +12590,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>42705</v>
       </c>
@@ -12612,7 +12614,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="48" t="s">
         <v>376</v>
       </c>
@@ -12634,7 +12636,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <v>42736</v>
       </c>
@@ -12654,7 +12656,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <v>42767</v>
       </c>
@@ -12674,7 +12676,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <v>42795</v>
       </c>
@@ -12694,7 +12696,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>42826</v>
       </c>
@@ -12720,7 +12722,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>42856</v>
       </c>
@@ -12740,7 +12742,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>42887</v>
       </c>
@@ -12760,7 +12762,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>42917</v>
       </c>
@@ -12780,7 +12782,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>42948</v>
       </c>
@@ -12800,7 +12802,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>42979</v>
       </c>
@@ -12820,7 +12822,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>43009</v>
       </c>
@@ -12840,7 +12842,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <v>43040</v>
       </c>
@@ -12860,7 +12862,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>43070</v>
       </c>
@@ -12884,7 +12886,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="48" t="s">
         <v>44</v>
       </c>
@@ -12906,7 +12908,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43101</v>
       </c>
@@ -12926,7 +12928,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43132</v>
       </c>
@@ -12952,7 +12954,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43160</v>
       </c>
@@ -12972,7 +12974,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43191</v>
       </c>
@@ -12992,7 +12994,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43221</v>
       </c>
@@ -13012,7 +13014,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43252</v>
       </c>
@@ -13032,7 +13034,7 @@
       <c r="J479" s="12"/>
       <c r="K479" s="15"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43282</v>
       </c>
@@ -13058,7 +13060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43313</v>
       </c>
@@ -13078,7 +13080,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43344</v>
       </c>
@@ -13098,7 +13100,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43374</v>
       </c>
@@ -13118,7 +13120,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>43405</v>
       </c>
@@ -13138,7 +13140,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43435</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="48" t="s">
         <v>50</v>
       </c>
@@ -13182,7 +13184,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43466</v>
       </c>
@@ -13202,7 +13204,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43497</v>
       </c>
@@ -13222,7 +13224,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43525</v>
       </c>
@@ -13248,7 +13250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43556</v>
       </c>
@@ -13268,7 +13270,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43586</v>
       </c>
@@ -13288,7 +13290,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43617</v>
       </c>
@@ -13308,7 +13310,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43647</v>
       </c>
@@ -13328,7 +13330,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43678</v>
       </c>
@@ -13348,7 +13350,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43709</v>
       </c>
@@ -13368,7 +13370,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43739</v>
       </c>
@@ -13388,7 +13390,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43770</v>
       </c>
@@ -13414,7 +13416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43800</v>
       </c>
@@ -13434,7 +13436,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="48" t="s">
         <v>54</v>
       </c>
@@ -13452,7 +13454,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43831</v>
       </c>
@@ -13476,7 +13478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>56</v>
@@ -13493,7 +13495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43862</v>
       </c>
@@ -13513,7 +13515,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13537,7 +13539,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>58</v>
@@ -13556,7 +13558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43922</v>
       </c>
@@ -13576,7 +13578,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43952</v>
       </c>
@@ -13596,7 +13598,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>43983</v>
       </c>
@@ -13616,7 +13618,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13636,7 +13638,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13656,7 +13658,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13676,7 +13678,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13696,7 +13698,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13716,7 +13718,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13740,7 +13742,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>63</v>
       </c>
@@ -13758,7 +13760,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13778,7 +13780,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44228</v>
       </c>
@@ -13798,7 +13800,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44256</v>
       </c>
@@ -13824,7 +13826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44287</v>
       </c>
@@ -13852,7 +13854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13872,7 +13874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44317</v>
       </c>
@@ -13896,7 +13898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44348</v>
       </c>
@@ -13916,7 +13918,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44378</v>
       </c>
@@ -13936,7 +13938,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44409</v>
       </c>
@@ -13956,7 +13958,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44440</v>
       </c>
@@ -13976,7 +13978,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44470</v>
       </c>
@@ -13996,7 +13998,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44501</v>
       </c>
@@ -14016,7 +14018,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44531</v>
       </c>
@@ -14042,7 +14044,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="48" t="s">
         <v>70</v>
       </c>
@@ -14060,7 +14062,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44562</v>
       </c>
@@ -14080,7 +14082,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44593</v>
       </c>
@@ -14100,7 +14102,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44621</v>
       </c>
@@ -14120,7 +14122,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>44652</v>
       </c>
@@ -14140,7 +14142,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44682</v>
       </c>
@@ -14160,7 +14162,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44713</v>
       </c>
@@ -14180,7 +14182,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44743</v>
       </c>
@@ -14200,7 +14202,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44774</v>
       </c>
@@ -14220,7 +14222,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44805</v>
       </c>
@@ -14240,7 +14242,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44835</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>44840</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>57</v>
@@ -14284,7 +14286,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44866</v>
       </c>
@@ -14310,7 +14312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>57</v>
@@ -14330,7 +14332,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44896</v>
       </c>
@@ -14356,7 +14358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="48" t="s">
         <v>75</v>
       </c>
@@ -14374,7 +14376,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44927</v>
       </c>
@@ -14394,7 +14396,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44958</v>
       </c>
@@ -14418,7 +14420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44986</v>
       </c>
@@ -14442,20 +14444,22 @@
         <v>408</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45017</v>
       </c>
       <c r="B547" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="C547" s="13"/>
+      <c r="C547" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G547" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
@@ -14464,13 +14468,17 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45047</v>
       </c>
-      <c r="B548" s="20"/>
+      <c r="B548" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="C548" s="13"/>
-      <c r="D548" s="39"/>
+      <c r="D548" s="39">
+        <v>3</v>
+      </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
       <c r="G548" s="13" t="str">
@@ -14480,9 +14488,11 @@
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K548" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45078</v>
       </c>
@@ -14500,7 +14510,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45108</v>
       </c>
@@ -14518,7 +14528,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45139</v>
       </c>
@@ -14536,7 +14546,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45170</v>
       </c>
@@ -14554,7 +14564,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45200</v>
       </c>
@@ -14572,7 +14582,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45231</v>
       </c>
@@ -14590,7 +14600,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45261</v>
       </c>
@@ -14608,7 +14618,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45292</v>
       </c>
@@ -14626,7 +14636,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45323</v>
       </c>
@@ -14644,7 +14654,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45352</v>
       </c>
@@ -14662,7 +14672,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45383</v>
       </c>
@@ -14680,7 +14690,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45413</v>
       </c>
@@ -14698,7 +14708,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45444</v>
       </c>
@@ -14716,7 +14726,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45474</v>
       </c>
@@ -14734,7 +14744,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45505</v>
       </c>
@@ -14752,7 +14762,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45536</v>
       </c>
@@ -14770,7 +14780,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45566</v>
       </c>
@@ -14788,7 +14798,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45597</v>
       </c>
@@ -14806,7 +14816,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45627</v>
       </c>
@@ -14824,7 +14834,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45658</v>
       </c>
@@ -14842,7 +14852,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45689</v>
       </c>
@@ -14860,7 +14870,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45717</v>
       </c>
@@ -14878,7 +14888,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45748</v>
       </c>
@@ -14896,7 +14906,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45778</v>
       </c>
@@ -14914,7 +14924,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45809</v>
       </c>
@@ -14932,7 +14942,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45839</v>
       </c>
@@ -14950,7 +14960,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45870</v>
       </c>
@@ -14968,7 +14978,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45901</v>
       </c>
@@ -14986,7 +14996,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45931</v>
       </c>
@@ -15004,7 +15014,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45962</v>
       </c>
@@ -15022,7 +15032,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45992</v>
       </c>
@@ -15040,7 +15050,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>46023</v>
       </c>
@@ -15058,7 +15068,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>46054</v>
       </c>
@@ -15076,7 +15086,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>46082</v>
       </c>
@@ -15094,7 +15104,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>46113</v>
       </c>
@@ -15112,7 +15122,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>46143</v>
       </c>
@@ -15130,7 +15140,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>46174</v>
       </c>
@@ -15148,7 +15158,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46204</v>
       </c>
@@ -15166,7 +15176,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46235</v>
       </c>
@@ -15184,7 +15194,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46266</v>
       </c>
@@ -15202,7 +15212,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>46296</v>
       </c>
@@ -15220,7 +15230,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>46327</v>
       </c>
@@ -15238,7 +15248,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>46357</v>
       </c>
@@ -15256,7 +15266,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15272,7 +15282,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15288,7 +15298,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15304,7 +15314,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15320,7 +15330,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15336,7 +15346,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41"/>
       <c r="B597" s="15"/>
       <c r="C597" s="42"/>
@@ -15367,10 +15377,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15393,28 +15403,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -15427,7 +15437,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15456,7 +15466,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>81.95</v>
       </c>
@@ -15486,17 +15496,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15517,7 +15527,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15544,7 +15554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15570,7 +15580,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15596,7 +15606,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15622,7 +15632,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15648,7 +15658,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15674,7 +15684,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15700,7 +15710,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15726,7 +15736,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15746,7 +15756,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15766,7 +15776,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15786,7 +15796,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15807,7 +15817,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15828,7 +15838,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15849,7 +15859,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15870,7 +15880,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15891,7 +15901,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15912,7 +15922,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15954,7 +15964,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15975,7 +15985,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15996,7 +16006,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16017,7 +16027,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16038,7 +16048,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16059,7 +16069,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16080,7 +16090,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16101,7 +16111,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16122,7 +16132,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16143,7 +16153,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16164,7 +16174,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16185,7 +16195,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16206,7 +16216,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16215,7 +16225,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16224,7 +16234,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16233,7 +16243,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16242,7 +16252,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16251,7 +16261,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16260,7 +16270,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16269,7 +16279,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16278,7 +16288,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16287,7 +16297,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16296,7 +16306,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16305,7 +16315,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16314,7 +16324,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16323,7 +16333,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16332,7 +16342,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16341,7 +16351,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16350,7 +16360,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16359,7 +16369,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16368,7 +16378,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16377,7 +16387,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16386,7 +16396,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16395,7 +16405,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16404,7 +16414,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16413,7 +16423,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16422,7 +16432,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16431,7 +16441,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16440,7 +16450,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16449,7 +16459,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16458,7 +16468,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16467,7 +16477,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
+++ b/REGULAR/OJT/NEW DONE/AMBAT, MARILOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="412">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>5/31, 6/1,3/2023</t>
+  </si>
+  <si>
+    <t>6/5-6/2023</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2311,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A538" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+      <selection pane="bottomLeft" activeCell="K550" sqref="K550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2472,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>130.34000000000003</v>
+        <v>131.59000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2479,7 +2482,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.29200000000003</v>
+        <v>234.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14475,15 +14478,17 @@
       <c r="B548" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="C548" s="13"/>
+      <c r="C548" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D548" s="39">
         <v>3</v>
       </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G548" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H548" s="39"/>
       <c r="I548" s="9"/>
@@ -14496,7 +14501,9 @@
       <c r="A549" s="40">
         <v>45078</v>
       </c>
-      <c r="B549" s="20"/>
+      <c r="B549" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
       <c r="E549" s="9"/>
@@ -14505,10 +14512,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H549" s="39"/>
+      <c r="H549" s="39">
+        <v>2</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="20"/>
+      <c r="K549" s="20" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
